--- a/Industrials/Cummins.xlsx
+++ b/Industrials/Cummins.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4919B8-C587-2F43-A7E2-A767CF3B6D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215DD0FA-876E-0E4E-9184-77A1E410A69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1409,7 +1409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1732,7 +1732,10 @@
     <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -1771,6 +1774,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1788,7 +1792,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.3360000000000003E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1800,6 +1804,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1927,11 +1932,11 @@
     <v>Powered by Refinitiv</v>
     <v>265.27999999999997</v>
     <v>203.18</v>
-    <v>1.0401</v>
-    <v>0.21</v>
-    <v>9.3849999999999999E-4</v>
-    <v>-0.56000000000000005</v>
-    <v>-2.5009999999999998E-3</v>
+    <v>1.0264</v>
+    <v>2.15</v>
+    <v>9.5909999999999988E-3</v>
+    <v>-0.33</v>
+    <v>-1.4580000000000001E-3</v>
     <v>USD</v>
     <v>Cummins Inc. offers complementary business segments that design, manufacture, distribute and service a portfolio of power solutions. The Company's segments include Components, Engine, Distribution, Power Systems, and Accelera. The Components segment sells filtration products, aftertreatment systems, turbochargers, electronics, fuel systems, automated transmissions, axles, and suspension systems. The Engine segment produces engines and associated parts for sale to customers in on-highway and various off-highway markets. The Distribution segment includes distributorships engaged in wholesaling engines, generator sets and service parts. The Power Systems segment is an integrated power provider, which designs, manufactures, and sells engines for industrial applications, standby and prime power generator sets, alternators, and other power components. The Accelera segment designs, manufactures, sells and supports hydrogen production solutions as well as electrified power systems.</v>
     <v>73600</v>
@@ -1939,25 +1944,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>BOX 3005 MAIL CODE 60207, 500 JACKSON ST, COLUMBUS, IN, 47202-3005 US</v>
-    <v>226.48</v>
+    <v>227.28</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45259.910661724221</v>
+    <v>45262.03720766172</v>
     <v>0</v>
-    <v>223.42</v>
-    <v>31715410000</v>
+    <v>223.51</v>
+    <v>32078280000</v>
     <v>CUMMINS INC.</v>
     <v>CUMMINS INC.</v>
-    <v>225.74</v>
-    <v>16.693000000000001</v>
-    <v>223.75</v>
-    <v>223.96</v>
-    <v>223.39</v>
+    <v>225.05</v>
+    <v>16.7087</v>
+    <v>224.16</v>
+    <v>226.31</v>
+    <v>225.98</v>
     <v>141744900</v>
     <v>CMI</v>
     <v>CUMMINS INC. (XNYS:CMI)</v>
-    <v>553939</v>
-    <v>809873</v>
+    <v>894328</v>
+    <v>809974</v>
     <v>1919</v>
   </rv>
   <rv s="2">
@@ -14068,7 +14073,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14121,7 +14126,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="41" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>31715410000</v>
+        <v>32078280000</v>
       </c>
       <c r="B3" s="42" t="s">
         <v>201</v>
@@ -14149,14 +14154,14 @@
       </c>
       <c r="I3" s="46">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>45605748469.775688</v>
+        <v>45372201538.885399</v>
       </c>
       <c r="J3" s="47" t="s">
         <v>205</v>
       </c>
       <c r="K3" s="48">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>2.8030537836338864E-2</v>
+        <v>2.7713455958361857E-2</v>
       </c>
       <c r="L3" s="49" t="s">
         <v>206</v>
@@ -14201,14 +14206,14 @@
       </c>
       <c r="I4" s="56">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>40133641291.185509</v>
+        <v>39927282787.183479</v>
       </c>
       <c r="J4" s="54" t="s">
         <v>212</v>
       </c>
       <c r="K4" s="57" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>9.3849999999999999E-4</v>
+        <v>9.5909999999999988E-3</v>
       </c>
       <c r="L4" s="58" t="s">
         <v>213</v>
@@ -14253,14 +14258,14 @@
       </c>
       <c r="I5" s="56">
         <f>I4+G5-G6</f>
-        <v>34747641291.185509</v>
+        <v>34541282787.183479</v>
       </c>
       <c r="J5" s="54" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="60" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>223.96</v>
+        <v>226.31</v>
       </c>
       <c r="L5" s="61" t="s">
         <v>220</v>
@@ -14280,7 +14285,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="64">
         <f>O20/F10</f>
-        <v>0.94672865671641793</v>
+        <v>0.95756059701492535</v>
       </c>
       <c r="B6" s="52" t="s">
         <v>222</v>
@@ -14308,14 +14313,14 @@
       </c>
       <c r="I6" s="57">
         <f>N25</f>
-        <v>8.3413140654088752E-2</v>
+        <v>8.3713813957581276E-2</v>
       </c>
       <c r="J6" s="54" t="s">
         <v>225</v>
       </c>
       <c r="K6" s="65">
         <f>I5/G4</f>
-        <v>274.60307148585832</v>
+        <v>272.97226499308613</v>
       </c>
       <c r="L6" s="66" t="s">
         <v>226</v>
@@ -14335,14 +14340,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="67">
         <f>O20/F12</f>
-        <v>11.266575488454707</v>
+        <v>11.39548134991119</v>
       </c>
       <c r="B7" s="68" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="69">
         <f>F15/A3</f>
-        <v>7.0407413935370852E-2</v>
+        <v>6.9610964178877424E-2</v>
       </c>
       <c r="D7" s="68" t="s">
         <v>229</v>
@@ -14369,7 +14374,7 @@
       </c>
       <c r="K7" s="75">
         <f>K6/K5-1</f>
-        <v>0.22612552011903153</v>
+        <v>0.2061873756930146</v>
       </c>
       <c r="L7" s="76" t="s">
         <v>232</v>
@@ -14696,7 +14701,7 @@
       </c>
       <c r="O14" s="95">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.3360000000000003E-2</v>
+        <v>4.2709999999999998E-2</v>
       </c>
       <c r="P14" s="50"/>
       <c r="Q14" s="50"/>
@@ -14848,7 +14853,7 @@
       </c>
       <c r="O17" s="105">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.7411200000000003E-2</v>
+        <v>9.762570000000001E-2</v>
       </c>
       <c r="P17" s="50"/>
       <c r="Q17" s="50"/>
@@ -14931,24 +14936,24 @@
       </c>
       <c r="O20" s="111">
         <f>A3</f>
-        <v>31715410000</v>
+        <v>32078280000</v>
       </c>
       <c r="P20" s="50"/>
       <c r="Q20" s="50"/>
       <c r="R20" s="50"/>
     </row>
     <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="115" t="str" cm="1">
+      <c r="A21" s="126" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Automobiles &amp; Auto Parts</v>
       </c>
-      <c r="B21" s="115"/>
-      <c r="C21" s="126" cm="1">
+      <c r="B21" s="126"/>
+      <c r="C21" s="127" cm="1">
         <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1919</v>
       </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
       <c r="F21" s="78"/>
       <c r="G21" s="78"/>
       <c r="H21" s="78"/>
@@ -14961,7 +14966,7 @@
       </c>
       <c r="O21" s="111">
         <f>O19+O20</f>
-        <v>39415410000</v>
+        <v>39778280000</v>
       </c>
       <c r="P21" s="50"/>
       <c r="Q21" s="50"/>
@@ -14989,7 +14994,7 @@
       </c>
       <c r="O22" s="113">
         <f>(O19/O21)</f>
-        <v>0.19535506544267839</v>
+        <v>0.19357297500042736</v>
       </c>
       <c r="P22" s="50"/>
       <c r="Q22" s="50"/>
@@ -15014,7 +15019,7 @@
       </c>
       <c r="O23" s="114">
         <f>O20/O21</f>
-        <v>0.80464493455732167</v>
+        <v>0.80642702499957264</v>
       </c>
       <c r="P23" s="50"/>
       <c r="Q23" s="50"/>
@@ -15058,7 +15063,7 @@
       <c r="M25" s="78"/>
       <c r="N25" s="118">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.3413140654088752E-2</v>
+        <v>8.3713813957581276E-2</v>
       </c>
       <c r="O25" s="119"/>
       <c r="P25" s="50"/>

--- a/Industrials/Cummins.xlsx
+++ b/Industrials/Cummins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215DD0FA-876E-0E4E-9184-77A1E410A69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9C2F24-5CC8-094C-8B64-DD3D25B9BA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1769,10 +1769,12 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1792,7 +1794,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1805,6 +1807,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1932,11 +1936,11 @@
     <v>Powered by Refinitiv</v>
     <v>265.27999999999997</v>
     <v>203.18</v>
-    <v>1.0264</v>
-    <v>2.15</v>
-    <v>9.5909999999999988E-3</v>
-    <v>-0.33</v>
-    <v>-1.4580000000000001E-3</v>
+    <v>1.0261</v>
+    <v>-0.15</v>
+    <v>-6.5010000000000003E-4</v>
+    <v>-0.57999999999999996</v>
+    <v>-2.5149999999999999E-3</v>
     <v>USD</v>
     <v>Cummins Inc. offers complementary business segments that design, manufacture, distribute and service a portfolio of power solutions. The Company's segments include Components, Engine, Distribution, Power Systems, and Accelera. The Components segment sells filtration products, aftertreatment systems, turbochargers, electronics, fuel systems, automated transmissions, axles, and suspension systems. The Engine segment produces engines and associated parts for sale to customers in on-highway and various off-highway markets. The Distribution segment includes distributorships engaged in wholesaling engines, generator sets and service parts. The Power Systems segment is an integrated power provider, which designs, manufactures, and sells engines for industrial applications, standby and prime power generator sets, alternators, and other power components. The Accelera segment designs, manufactures, sells and supports hydrogen production solutions as well as electrified power systems.</v>
     <v>73600</v>
@@ -1944,25 +1948,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>BOX 3005 MAIL CODE 60207, 500 JACKSON ST, COLUMBUS, IN, 47202-3005 US</v>
-    <v>227.28</v>
+    <v>233.32</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45262.03720766172</v>
+    <v>45268.99948615703</v>
     <v>0</v>
-    <v>223.51</v>
-    <v>32078280000</v>
+    <v>229.8</v>
+    <v>32683530000</v>
     <v>CUMMINS INC.</v>
     <v>CUMMINS INC.</v>
-    <v>225.05</v>
-    <v>16.7087</v>
-    <v>224.16</v>
-    <v>226.31</v>
-    <v>225.98</v>
+    <v>231.31</v>
+    <v>17.198399999999999</v>
+    <v>230.73</v>
+    <v>230.58</v>
+    <v>230</v>
     <v>141744900</v>
     <v>CMI</v>
     <v>CUMMINS INC. (XNYS:CMI)</v>
-    <v>894328</v>
-    <v>809974</v>
+    <v>501710</v>
+    <v>818674</v>
     <v>1919</v>
   </rv>
   <rv s="2">
@@ -2127,9 +2131,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -14073,7 +14077,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14126,7 +14130,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="41" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>32078280000</v>
+        <v>32683530000</v>
       </c>
       <c r="B3" s="42" t="s">
         <v>201</v>
@@ -14154,14 +14158,14 @@
       </c>
       <c r="I3" s="46">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>45372201538.885399</v>
+        <v>44906323919.453094</v>
       </c>
       <c r="J3" s="47" t="s">
         <v>205</v>
       </c>
       <c r="K3" s="48">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>2.7713455958361857E-2</v>
+        <v>2.7200244282058885E-2</v>
       </c>
       <c r="L3" s="49" t="s">
         <v>206</v>
@@ -14206,14 +14210,14 @@
       </c>
       <c r="I4" s="56">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>39927282787.183479</v>
+        <v>39515642263.669098</v>
       </c>
       <c r="J4" s="54" t="s">
         <v>212</v>
       </c>
       <c r="K4" s="57" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>9.5909999999999988E-3</v>
+        <v>-6.5010000000000003E-4</v>
       </c>
       <c r="L4" s="58" t="s">
         <v>213</v>
@@ -14258,14 +14262,14 @@
       </c>
       <c r="I5" s="56">
         <f>I4+G5-G6</f>
-        <v>34541282787.183479</v>
+        <v>34129642263.669098</v>
       </c>
       <c r="J5" s="54" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="60" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>226.31</v>
+        <v>230.58</v>
       </c>
       <c r="L5" s="61" t="s">
         <v>220</v>
@@ -14285,7 +14289,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="64">
         <f>O20/F10</f>
-        <v>0.95756059701492535</v>
+        <v>0.97562776119402983</v>
       </c>
       <c r="B6" s="52" t="s">
         <v>222</v>
@@ -14313,14 +14317,14 @@
       </c>
       <c r="I6" s="57">
         <f>N25</f>
-        <v>8.3713813957581276E-2</v>
+        <v>8.4322936448289088E-2</v>
       </c>
       <c r="J6" s="54" t="s">
         <v>225</v>
       </c>
       <c r="K6" s="65">
         <f>I5/G4</f>
-        <v>272.97226499308613</v>
+        <v>269.71915923094707</v>
       </c>
       <c r="L6" s="66" t="s">
         <v>226</v>
@@ -14340,14 +14344,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="67">
         <f>O20/F12</f>
-        <v>11.39548134991119</v>
+        <v>11.610490230905862</v>
       </c>
       <c r="B7" s="68" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="69">
         <f>F15/A3</f>
-        <v>6.9610964178877424E-2</v>
+        <v>6.8321873432888064E-2</v>
       </c>
       <c r="D7" s="68" t="s">
         <v>229</v>
@@ -14374,7 +14378,7 @@
       </c>
       <c r="K7" s="75">
         <f>K6/K5-1</f>
-        <v>0.2061873756930146</v>
+        <v>0.16974221194790129</v>
       </c>
       <c r="L7" s="76" t="s">
         <v>232</v>
@@ -14701,7 +14705,7 @@
       </c>
       <c r="O14" s="95">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="50"/>
       <c r="Q14" s="50"/>
@@ -14853,7 +14857,7 @@
       </c>
       <c r="O17" s="105">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="50"/>
       <c r="Q17" s="50"/>
@@ -14936,7 +14940,7 @@
       </c>
       <c r="O20" s="111">
         <f>A3</f>
-        <v>32078280000</v>
+        <v>32683530000</v>
       </c>
       <c r="P20" s="50"/>
       <c r="Q20" s="50"/>
@@ -14966,7 +14970,7 @@
       </c>
       <c r="O21" s="111">
         <f>O19+O20</f>
-        <v>39778280000</v>
+        <v>40383530000</v>
       </c>
       <c r="P21" s="50"/>
       <c r="Q21" s="50"/>
@@ -14994,7 +14998,7 @@
       </c>
       <c r="O22" s="113">
         <f>(O19/O21)</f>
-        <v>0.19357297500042736</v>
+        <v>0.19067179119804534</v>
       </c>
       <c r="P22" s="50"/>
       <c r="Q22" s="50"/>
@@ -15019,7 +15023,7 @@
       </c>
       <c r="O23" s="114">
         <f>O20/O21</f>
-        <v>0.80642702499957264</v>
+        <v>0.80932820880195466</v>
       </c>
       <c r="P23" s="50"/>
       <c r="Q23" s="50"/>
@@ -15063,7 +15067,7 @@
       <c r="M25" s="78"/>
       <c r="N25" s="118">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.3713813957581276E-2</v>
+        <v>8.4322936448289088E-2</v>
       </c>
       <c r="O25" s="119"/>
       <c r="P25" s="50"/>
